--- a/Project/3501/Furkan/Flyback/UCC28610 Design Calculator SLUC113F(1).xlsx
+++ b/Project/3501/Furkan/Flyback/UCC28610 Design Calculator SLUC113F(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkfrk\Google Drive\IMMDBoard\Flyback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\immdrepo\Project\3501\Furkan\Flyback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7335" tabRatio="497" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7335" tabRatio="497" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,11 @@
     <definedName name="Iin_peak">Calculations!$B$10</definedName>
     <definedName name="Iin_rms">Calculations!$B$9</definedName>
     <definedName name="Iinpeak">Calculations!$B$10</definedName>
+    <definedName name="input">'Design Inputs'!$K$23</definedName>
     <definedName name="Iout">'Design Inputs'!$C$14</definedName>
     <definedName name="Ipeak_sec">Calculations!$B$38</definedName>
     <definedName name="Iprms">Calculations!$B$37</definedName>
     <definedName name="Isrms">Calculations!$B$39</definedName>
-    <definedName name="input">'Design Inputs'!$K$23</definedName>
     <definedName name="Lleak">Calculations!$B$31</definedName>
     <definedName name="Lleak_actual">'Design Inputs'!$H$10</definedName>
     <definedName name="Lleak_target">'Design Inputs'!$G$10</definedName>
@@ -3590,6 +3590,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3623,42 +3659,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3677,6 +3677,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3695,91 +3698,124 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3791,42 +3827,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4355,7 +4355,7 @@
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4380,42 +4380,42 @@
       </c>
     </row>
     <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
     </row>
     <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
     </row>
     <row r="4" spans="2:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="189"/>
-      <c r="D4" s="190"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="48"/>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="187"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="199"/>
       <c r="J4" s="142"/>
       <c r="K4" s="142"/>
       <c r="L4" s="142"/>
@@ -4427,9 +4427,9 @@
       <c r="R4" s="142"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="191"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="46"/>
       <c r="F5" s="53"/>
       <c r="G5" s="52" t="s">
@@ -4450,11 +4450,11 @@
       <c r="R5" s="152"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="49"/>
       <c r="F6" s="53" t="s">
         <v>19</v>
@@ -4495,12 +4495,12 @@
         <v>292</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="198" t="s">
+      <c r="F7" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="189"/>
       <c r="J7" s="152"/>
       <c r="K7" s="152" t="s">
         <v>128</v>
@@ -4655,12 +4655,12 @@
       <c r="C12" s="44"/>
       <c r="D12" s="45"/>
       <c r="E12" s="57"/>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="200"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="189"/>
       <c r="J12" s="176" t="str">
         <f>IF(Lp_actual="","",IF(Lp_actual&lt;(0.85*Lp_target),"INCREASE PRIMARY INDUCTANCE",IF(Lp_actual&gt;1.15*Lp_target,"DECREASE PRIMARY INDUCTANCE","")))</f>
         <v/>
@@ -4816,11 +4816,11 @@
       <c r="F16" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="G16" s="201">
+      <c r="G16" s="190">
         <f>Idrv*2</f>
         <v>2.5412960609911055</v>
       </c>
-      <c r="H16" s="202"/>
+      <c r="H16" s="191"/>
       <c r="I16" s="54" t="s">
         <v>14</v>
       </c>
@@ -4848,11 +4848,11 @@
       <c r="F17" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="201">
+      <c r="G17" s="190">
         <f>Idrain_rms</f>
         <v>0.42998460107669317</v>
       </c>
-      <c r="H17" s="202"/>
+      <c r="H17" s="191"/>
       <c r="I17" s="54" t="s">
         <v>14</v>
       </c>
@@ -4876,11 +4876,11 @@
       <c r="R17" s="152"/>
     </row>
     <row r="18" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="205"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="194"/>
       <c r="F18" s="102" t="s">
         <v>126</v>
       </c>
@@ -5049,17 +5049,17 @@
       <c r="R23" s="142"/>
     </row>
     <row r="24" spans="2:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="194" t="str">
+      <c r="B24" s="183" t="str">
         <f>IF(Calculations!B47&lt;Pout,"APPLICATION IS OUTSIDE OF THE ACCEPTABLE OPERATING RANGE OF THE UCC28610","")</f>
         <v/>
       </c>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
       <c r="J24" s="142"/>
       <c r="K24" s="142"/>
       <c r="L24" s="142"/>
@@ -5134,6 +5134,11 @@
   </sheetData>
   <sheetProtection password="ED1D" sheet="1" selectLockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F7:I7"/>
@@ -5141,11 +5146,6 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
@@ -5169,7 +5169,7 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5183,15 +5183,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="212" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K2" s="76"/>
@@ -6077,14 +6077,14 @@
       <c r="C53" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="212" t="s">
+      <c r="E53" s="213" t="s">
         <v>162</v>
       </c>
-      <c r="F53" s="216">
+      <c r="F53" s="217">
         <f>(Lp*10^-6)*(0.33*Idrv)^2*30*10^3*eff/2</f>
         <v>1.120878668451279</v>
       </c>
-      <c r="G53" s="214" t="s">
+      <c r="G53" s="215" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6099,9 +6099,9 @@
       <c r="C54" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="212"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="214"/>
+      <c r="E54" s="213"/>
+      <c r="F54" s="217"/>
+      <c r="G54" s="215"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
@@ -6114,14 +6114,14 @@
       <c r="C55" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="212" t="s">
+      <c r="E55" s="213" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="216">
+      <c r="F55" s="217">
         <f>(Lp*10^-6)*Idrv^2*30*10^3*eff/2</f>
         <v>10.292733410939199</v>
       </c>
-      <c r="G55" s="214" t="s">
+      <c r="G55" s="215" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6136,9 +6136,9 @@
       <c r="C56" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="213"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="215"/>
+      <c r="E56" s="214"/>
+      <c r="F56" s="218"/>
+      <c r="G56" s="216"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -6187,12 +6187,14 @@
   </sheetData>
   <sheetProtection password="ED1D" sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="24">
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A26:C26"/>
@@ -6203,14 +6205,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E44:G44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6226,7 +6226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B31:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6266,25 +6266,25 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="224" t="s">
+      <c r="B33" s="227" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="136">
         <f>Calculations!B17</f>
         <v>400</v>
       </c>
-      <c r="D33" s="233" t="str">
+      <c r="D33" s="236" t="str">
         <f>IF(Calculations!B17="","Not Used","Input Diode Bridge")</f>
         <v>Input Diode Bridge</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="226"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="124">
         <f>Ifuse</f>
         <v>0.26894862165886363</v>
       </c>
-      <c r="D34" s="234"/>
+      <c r="D34" s="237"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="95" t="s">
@@ -6299,10 +6299,10 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="220" t="s">
+      <c r="B36" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="235">
+      <c r="C36" s="229">
         <f>Cin</f>
         <v>68</v>
       </c>
@@ -6312,18 +6312,18 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="220"/>
-      <c r="C37" s="236"/>
+      <c r="B37" s="231"/>
+      <c r="C37" s="230"/>
       <c r="D37" s="127">
         <f>Icin</f>
         <v>0.26894862165886363</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="220" t="s">
+      <c r="B38" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="219">
+      <c r="C38" s="242">
         <f>Cout_target</f>
         <v>75.149238870130375</v>
       </c>
@@ -6333,8 +6333,8 @@
       <c r="E38" s="83"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="220"/>
-      <c r="C39" s="219"/>
+      <c r="B39" s="231"/>
+      <c r="C39" s="242"/>
       <c r="D39" s="126">
         <f>Cout_Iripple_target</f>
         <v>2.3275978290775492</v>
@@ -6390,94 +6390,94 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="227" t="s">
+      <c r="B44" s="219" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="129">
         <f>Dbias</f>
         <v>40.181150090148499</v>
       </c>
-      <c r="D44" s="229" t="s">
+      <c r="D44" s="222" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="228"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="230"/>
+      <c r="D45" s="224"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="224" t="s">
+      <c r="B46" s="227" t="s">
         <v>180</v>
       </c>
       <c r="C46" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="221" t="s">
+      <c r="D46" s="225" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="225"/>
+      <c r="B47" s="244"/>
       <c r="C47" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="222"/>
+      <c r="D47" s="243"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="226"/>
+      <c r="B48" s="228"/>
       <c r="C48" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="223"/>
+      <c r="D48" s="226"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="227" t="s">
+      <c r="B49" s="219" t="s">
         <v>184</v>
       </c>
       <c r="C49" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="229" t="s">
+      <c r="D49" s="222" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="228"/>
+      <c r="B50" s="221"/>
       <c r="C50" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="230"/>
+      <c r="D50" s="224"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="227" t="s">
+      <c r="B51" s="219" t="s">
         <v>182</v>
       </c>
       <c r="C51" s="132">
         <f>VDout</f>
         <v>99.167364013684363</v>
       </c>
-      <c r="D51" s="229" t="s">
+      <c r="D51" s="222" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="243"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="130">
         <f>Calculations!F29</f>
         <v>4.0734537906273127</v>
       </c>
-      <c r="D52" s="244"/>
+      <c r="D52" s="223"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="243"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="131">
         <f>Calculations!F30</f>
         <v>7.6238881829733165</v>
       </c>
-      <c r="D53" s="230"/>
+      <c r="D53" s="224"/>
       <c r="E53" s="96"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -6494,24 +6494,24 @@
       <c r="E54" s="96"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="227" t="s">
+      <c r="B55" s="219" t="s">
         <v>181</v>
       </c>
       <c r="C55" s="119">
         <f>Vdsrating</f>
         <v>600</v>
       </c>
-      <c r="D55" s="221" t="s">
+      <c r="D55" s="225" t="s">
         <v>236</v>
       </c>
       <c r="E55" s="96"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="228"/>
+      <c r="B56" s="221"/>
       <c r="C56" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="223"/>
+      <c r="D56" s="226"/>
       <c r="E56" s="96"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -6528,101 +6528,101 @@
       <c r="E57" s="96"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="227" t="s">
+      <c r="B58" s="219" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="133">
         <f>Vdsrating</f>
         <v>600</v>
       </c>
-      <c r="D58" s="229" t="s">
+      <c r="D58" s="222" t="s">
         <v>208</v>
       </c>
       <c r="E58" s="96"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="243"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="134">
         <f>Idrain</f>
         <v>1.2706480304955527</v>
       </c>
-      <c r="D59" s="244"/>
+      <c r="D59" s="223"/>
       <c r="E59" s="96"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="243"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="130">
         <f>Idrain_rms</f>
         <v>0.42998460107669317</v>
       </c>
-      <c r="D60" s="230"/>
+      <c r="D60" s="224"/>
       <c r="E60" s="96"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="227" t="s">
+      <c r="B61" s="219" t="s">
         <v>202</v>
       </c>
       <c r="C61" s="105">
         <f>Lp</f>
         <v>500</v>
       </c>
-      <c r="D61" s="241" t="s">
+      <c r="D61" s="232" t="s">
         <v>206</v>
       </c>
       <c r="E61" s="96"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="243"/>
+      <c r="B62" s="220"/>
       <c r="C62" s="135">
         <f>Nps</f>
         <v>6</v>
       </c>
-      <c r="D62" s="242"/>
+      <c r="D62" s="233"/>
       <c r="E62" s="96"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="243"/>
+      <c r="B63" s="220"/>
       <c r="C63" s="139">
         <f>Npb</f>
         <v>13.5</v>
       </c>
-      <c r="D63" s="242"/>
+      <c r="D63" s="233"/>
       <c r="E63" s="96"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="243"/>
+      <c r="B64" s="220"/>
       <c r="C64" s="140">
         <f>Idrv</f>
         <v>1.2706480304955527</v>
       </c>
-      <c r="D64" s="242"/>
+      <c r="D64" s="233"/>
       <c r="E64" s="96"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="243"/>
+      <c r="B65" s="220"/>
       <c r="C65" s="137">
         <f>Iprms</f>
         <v>0.42998460107669317</v>
       </c>
-      <c r="D65" s="242"/>
+      <c r="D65" s="233"/>
       <c r="E65" s="96"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="243"/>
+      <c r="B66" s="220"/>
       <c r="C66" s="138">
         <f>Ipeak_sec</f>
         <v>7.6238881829733165</v>
       </c>
-      <c r="D66" s="242"/>
+      <c r="D66" s="233"/>
       <c r="E66" s="96"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="243"/>
+      <c r="B67" s="220"/>
       <c r="C67" s="141">
         <f>Isrms</f>
         <v>4.0734537906273127</v>
       </c>
-      <c r="D67" s="242"/>
+      <c r="D67" s="233"/>
       <c r="E67" s="96"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -6638,10 +6638,10 @@
       <c r="E68" s="96"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="220" t="s">
+      <c r="B69" s="231" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="237" t="s">
+      <c r="C69" s="238" t="s">
         <v>222</v>
       </c>
       <c r="D69" s="111" t="s">
@@ -6650,18 +6650,18 @@
       <c r="E69" s="96"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="220"/>
-      <c r="C70" s="237"/>
+      <c r="B70" s="231"/>
+      <c r="C70" s="238"/>
       <c r="D70" s="113" t="s">
         <v>220</v>
       </c>
       <c r="E70" s="96"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="224" t="s">
+      <c r="B71" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="C71" s="224" t="s">
+      <c r="C71" s="227" t="s">
         <v>221</v>
       </c>
       <c r="D71" s="112" t="s">
@@ -6670,18 +6670,18 @@
       <c r="E71" s="96"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="226"/>
-      <c r="C72" s="226"/>
+      <c r="B72" s="228"/>
+      <c r="C72" s="228"/>
       <c r="D72" s="112" t="s">
         <v>241</v>
       </c>
       <c r="E72" s="96"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="224" t="s">
+      <c r="B73" s="227" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="239">
+      <c r="C73" s="240">
         <f>Rcl</f>
         <v>78.7</v>
       </c>
@@ -6690,8 +6690,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="226"/>
-      <c r="C74" s="240"/>
+      <c r="B74" s="228"/>
+      <c r="C74" s="241"/>
       <c r="D74" s="113" t="s">
         <v>229</v>
       </c>
@@ -6710,10 +6710,10 @@
       <c r="E75" s="96"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="224" t="s">
+      <c r="B76" s="227" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="235" t="s">
+      <c r="C76" s="229" t="s">
         <v>199</v>
       </c>
       <c r="D76" s="111" t="s">
@@ -6722,8 +6722,8 @@
       <c r="E76" s="96"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="226"/>
-      <c r="C77" s="236"/>
+      <c r="B77" s="228"/>
+      <c r="C77" s="230"/>
       <c r="D77" s="113" t="s">
         <v>242</v>
       </c>
@@ -6768,10 +6768,10 @@
       <c r="E80" s="96"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="220" t="s">
+      <c r="B81" s="231" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="238">
+      <c r="C81" s="239">
         <f>Rstart</f>
         <v>14.613434864001201</v>
       </c>
@@ -6781,8 +6781,8 @@
       <c r="E81" s="96"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="220"/>
-      <c r="C82" s="238"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="239"/>
       <c r="D82" s="115">
         <f>Vin_max</f>
         <v>367.69552621700473</v>
@@ -6814,10 +6814,10 @@
       <c r="E84" s="96"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="220" t="s">
+      <c r="B85" s="231" t="s">
         <v>196</v>
       </c>
-      <c r="C85" s="231">
+      <c r="C85" s="234">
         <f>Rsnub1</f>
         <v>442</v>
       </c>
@@ -6826,18 +6826,18 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="220"/>
-      <c r="C86" s="231"/>
+      <c r="B86" s="231"/>
+      <c r="C86" s="234"/>
       <c r="D86" s="117">
         <f>Calculations!F48</f>
         <v>0.51311208790618712</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="220" t="s">
+      <c r="B87" s="231" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="232">
+      <c r="C87" s="235">
         <f>Calculations!F49</f>
         <v>147</v>
       </c>
@@ -6847,8 +6847,8 @@
       <c r="E87" s="84"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="220"/>
-      <c r="C88" s="232"/>
+      <c r="B88" s="231"/>
+      <c r="C88" s="235"/>
       <c r="D88" s="116">
         <f>Calculations!F50</f>
         <v>0.11059199999999998</v>
@@ -6896,18 +6896,12 @@
   </sheetData>
   <sheetProtection password="ED1D" sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="B87:B88"/>
@@ -6924,12 +6918,18 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D61:D67"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D51:D53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6985,14 +6985,14 @@
     <row r="2" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="254" t="s">
+      <c r="F2" s="246"/>
+      <c r="G2" s="251" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="255"/>
+      <c r="H2" s="252"/>
       <c r="J2" s="110" t="s">
         <v>230</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="O5" s="148"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="250" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="107">
@@ -7091,7 +7091,7 @@
         <v>1.2</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="245" t="s">
+      <c r="M6" s="250" t="s">
         <v>146</v>
       </c>
       <c r="N6" s="107">
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="245"/>
+      <c r="B7" s="250"/>
       <c r="C7" s="107">
         <f>IF(C6&lt;24.9,24.9,IF(C6&gt;100,100,C6))</f>
         <v>78.7</v>
@@ -7128,7 +7128,7 @@
         <v>1.5</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="245"/>
+      <c r="M7" s="250"/>
       <c r="N7" s="107">
         <f>(IF(N6&lt;10000,N8*10^INT(LOG(N6)),N9*10^INT(LOG(N6))))</f>
         <v>180</v>
@@ -7138,7 +7138,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="250" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="71">
@@ -7165,7 +7165,7 @@
         <v>1.8</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="245"/>
+      <c r="M8" s="250"/>
       <c r="N8" s="107">
         <f>IF((10^(LOG(N6)-INT(LOG(N6))))-VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),c_s1:C_f1,1)&lt;VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),c_s1:C_f1,2)-(10^(LOG(N6)-INT(LOG(N6)))),VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),c_s1:C_f1,1),VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),c_s1:C_f1,2))</f>
         <v>1.8</v>
@@ -7173,16 +7173,16 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="245"/>
+      <c r="B9" s="250"/>
       <c r="C9" s="70">
         <f>(IF((10^(LOG(C8)-INT(LOG(C8)))*100)-VLOOKUP((10^(LOG(C8)-INT(LOG(C8)))*100),E48_s:E48_f,1)&lt;VLOOKUP((10^(LOG(C8)-INT(LOG(C8)))*100),E48_s:E48_f,2)-(10^(LOG(C8)-INT(LOG(C8)))*100),VLOOKUP((10^(LOG(C8)-INT(LOG(C8)))*100),E48_s:E48_f,1),VLOOKUP((10^(LOG(C8)-INT(LOG(C8)))*100),E48_s:E48_f,2)))*10^INT(LOG(C8))/100</f>
         <v>115</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="256" t="s">
+      <c r="E9" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="257"/>
+      <c r="F9" s="254"/>
       <c r="G9" s="14">
         <v>115</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="245"/>
+      <c r="M9" s="250"/>
       <c r="N9" s="107">
         <f>IF((10^(LOG(N6)-INT(LOG(N6))))-VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),C_s2:C_f2,1)&lt;VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),C_s2:C_f2,2)-(10^(LOG(N6)-INT(LOG(N6)))),VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),C_s2:C_f2,1),VLOOKUP((10^(LOG(N6)-INT(LOG(N6)))),C_s2:C_f2,2))</f>
         <v>1.5</v>
@@ -7204,7 +7204,7 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="257" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="71">
@@ -7232,7 +7232,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="247"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="70">
         <f>(IF((10^(LOG(C10)-INT(LOG(C10)))*100)-VLOOKUP((10^(LOG(C10)-INT(LOG(C10)))*100),E48_s:E48_f,1)&lt;VLOOKUP((10^(LOG(C10)-INT(LOG(C10)))*100),E48_s:E48_f,2)-(10^(LOG(C10)-INT(LOG(C10)))*100),VLOOKUP((10^(LOG(C10)-INT(LOG(C10)))*100),E48_s:E48_f,1),VLOOKUP((10^(LOG(C10)-INT(LOG(C10)))*100),E48_s:E48_f,2)))*10^INT(LOG(C10))/100</f>
         <v>442</v>
@@ -7258,7 +7258,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="257" t="s">
         <v>152</v>
       </c>
       <c r="C12" s="71">
@@ -7287,7 +7287,7 @@
     </row>
     <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="247"/>
+      <c r="B13" s="258"/>
       <c r="C13" s="70">
         <f>(IF((10^(LOG(C12)-INT(LOG(C12)))*100)-VLOOKUP((10^(LOG(C12)-INT(LOG(C12)))*100),E48_s:E48_f,1)&lt;VLOOKUP((10^(LOG(C12)-INT(LOG(C12)))*100),E48_s:E48_f,2)-(10^(LOG(C12)-INT(LOG(C12)))*100),VLOOKUP((10^(LOG(C12)-INT(LOG(C12)))*100),E48_s:E48_f,1),VLOOKUP((10^(LOG(C12)-INT(LOG(C12)))*100),E48_s:E48_f,2)))*10^INT(LOG(C12))/100</f>
         <v>147</v>
@@ -7543,7 +7543,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M20" s="164"/>
-      <c r="N20" s="251" t="s">
+      <c r="N20" s="247" t="s">
         <v>276</v>
       </c>
       <c r="O20" s="107">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="164"/>
-      <c r="N21" s="252"/>
+      <c r="N21" s="248"/>
       <c r="O21" s="107">
         <f>(IF(O20&lt;10000,O22*10^INT(LOG(O20)),O23*10^INT(LOG(O20))))*10^-6</f>
         <v>15</v>
@@ -7601,10 +7601,10 @@
       <c r="B22" s="30"/>
       <c r="C22" s="22"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="258" t="s">
+      <c r="E22" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="259"/>
+      <c r="F22" s="256"/>
       <c r="G22" s="15">
         <v>158</v>
       </c>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="164"/>
-      <c r="N22" s="252"/>
+      <c r="N22" s="248"/>
       <c r="O22" s="107">
         <f>IF((10^(LOG(O20)-INT(LOG(O20))))-VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),c_s1:C_f1,1)&lt;VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),c_s1:C_f1,2)-(10^(LOG(O20)-INT(LOG(O20)))),VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),c_s1:C_f1,1),VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),c_s1:C_f1,2))</f>
         <v>1.8</v>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="164"/>
-      <c r="N23" s="253"/>
+      <c r="N23" s="249"/>
       <c r="O23" s="107">
         <f>IF((10^(LOG(O20)-INT(LOG(O20))))-VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),C_s2:C_f2,1)&lt;VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),C_s2:C_f2,2)-(10^(LOG(O20)-INT(LOG(O20)))),VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),C_s2:C_f2,1),VLOOKUP((10^(LOG(O20)-INT(LOG(O20)))),C_s2:C_f2,2))</f>
         <v>1.5</v>
@@ -7952,7 +7952,7 @@
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="164"/>
-      <c r="N31" s="251" t="s">
+      <c r="N31" s="247" t="s">
         <v>262</v>
       </c>
       <c r="O31" s="107">
@@ -7990,7 +7990,7 @@
       <c r="I32" s="36"/>
       <c r="L32" s="7"/>
       <c r="M32" s="164"/>
-      <c r="N32" s="252"/>
+      <c r="N32" s="248"/>
       <c r="O32" s="107">
         <f>(IF(O31&lt;10000,O33*10^INT(LOG(O31)),O34*10^INT(LOG(O31))))*10^-6</f>
         <v>15</v>
@@ -8026,7 +8026,7 @@
       <c r="I33" s="38"/>
       <c r="L33" s="21"/>
       <c r="M33" s="164"/>
-      <c r="N33" s="252"/>
+      <c r="N33" s="248"/>
       <c r="O33" s="107">
         <f>IF((10^(LOG(O31)-INT(LOG(O31))))-VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),c_s1:C_f1,1)&lt;VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),c_s1:C_f1,2)-(10^(LOG(O31)-INT(LOG(O31)))),VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),c_s1:C_f1,1),VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),c_s1:C_f1,2))</f>
         <v>1.5</v>
@@ -8060,7 +8060,7 @@
       <c r="I34" s="8"/>
       <c r="L34" s="23"/>
       <c r="M34" s="164"/>
-      <c r="N34" s="253"/>
+      <c r="N34" s="249"/>
       <c r="O34" s="107">
         <f>IF((10^(LOG(O31)-INT(LOG(O31))))-VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),C_s2:C_f2,1)&lt;VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),C_s2:C_f2,2)-(10^(LOG(O31)-INT(LOG(O31)))),VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),C_s2:C_f2,1),VLOOKUP((10^(LOG(O31)-INT(LOG(O31)))),C_s2:C_f2,2))</f>
         <v>1.5</v>
@@ -8310,7 +8310,7 @@
       <c r="I42" s="36"/>
       <c r="L42" s="7"/>
       <c r="M42" s="164"/>
-      <c r="N42" s="251" t="s">
+      <c r="N42" s="247" t="s">
         <v>277</v>
       </c>
       <c r="O42" s="107">
@@ -8344,7 +8344,7 @@
       <c r="I43" s="36"/>
       <c r="L43" s="7"/>
       <c r="M43" s="164"/>
-      <c r="N43" s="252"/>
+      <c r="N43" s="248"/>
       <c r="O43" s="107">
         <f>(IF(O42&lt;10000,O44*10^INT(LOG(O42)),O45*10^INT(LOG(O42))))*10^-6</f>
         <v>15</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="164"/>
-      <c r="N44" s="252"/>
+      <c r="N44" s="248"/>
       <c r="O44" s="107">
         <f>IF((10^(LOG(O42)-INT(LOG(O42))))-VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),c_s1:C_f1,1)&lt;VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),c_s1:C_f1,2)-(10^(LOG(O42)-INT(LOG(O42)))),VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),c_s1:C_f1,1),VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),c_s1:C_f1,2))</f>
         <v>1.5</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="164"/>
-      <c r="N45" s="253"/>
+      <c r="N45" s="249"/>
       <c r="O45" s="107">
         <f>IF((10^(LOG(O42)-INT(LOG(O42))))-VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),C_s2:C_f2,1)&lt;VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),C_s2:C_f2,2)-(10^(LOG(O42)-INT(LOG(O42)))),VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),C_s2:C_f2,1),VLOOKUP((10^(LOG(O42)-INT(LOG(O42)))),C_s2:C_f2,2))</f>
         <v>1.5</v>
@@ -8442,10 +8442,10 @@
       <c r="T46" s="166"/>
     </row>
     <row r="47" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="248" t="s">
+      <c r="E47" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="248"/>
+      <c r="F47" s="259"/>
       <c r="G47" s="14">
         <v>287</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
       <c r="M53" s="164"/>
-      <c r="N53" s="251" t="s">
+      <c r="N53" s="247" t="s">
         <v>283</v>
       </c>
       <c r="O53" s="107">
@@ -8682,7 +8682,7 @@
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
       <c r="M54" s="164"/>
-      <c r="N54" s="252"/>
+      <c r="N54" s="248"/>
       <c r="O54" s="107">
         <f>(IF(O53&lt;10000,O55*10^INT(LOG(O53)),O56*10^INT(LOG(O53))))*10^-6</f>
         <v>15</v>
@@ -8715,7 +8715,7 @@
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="M55" s="164"/>
-      <c r="N55" s="252"/>
+      <c r="N55" s="248"/>
       <c r="O55" s="107">
         <f>IF((10^(LOG(O53)-INT(LOG(O53))))-VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),c_s1:C_f1,1)&lt;VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),c_s1:C_f1,2)-(10^(LOG(O53)-INT(LOG(O53)))),VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),c_s1:C_f1,1),VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),c_s1:C_f1,2))</f>
         <v>1.5</v>
@@ -8746,7 +8746,7 @@
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="164"/>
-      <c r="N56" s="253"/>
+      <c r="N56" s="249"/>
       <c r="O56" s="107">
         <f>IF((10^(LOG(O53)-INT(LOG(O53))))-VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),C_s2:C_f2,1)&lt;VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),C_s2:C_f2,2)-(10^(LOG(O53)-INT(LOG(O53)))),VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),C_s2:C_f2,1),VLOOKUP((10^(LOG(O53)-INT(LOG(O53)))),C_s2:C_f2,2))</f>
         <v>1.5</v>
@@ -9731,6 +9731,11 @@
   </sheetData>
   <sheetProtection password="ED1D" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="N31:N34"/>
     <mergeCell ref="N42:N45"/>
@@ -9740,11 +9745,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="N20:N23"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
